--- a/doc/hupf/Gene Frequency 7-12.xlsb.xlsx
+++ b/doc/hupf/Gene Frequency 7-12.xlsb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth\Documents\Genes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2842B88F-1919-4095-A654-293AA8675A16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B558D49E-A662-4C71-8B1C-18B9292B4B23}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6345" firstSheet="1" activeTab="3" xr2:uid="{9418C323-7848-48D6-94C8-9687E9FE5624}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6345" activeTab="3" xr2:uid="{9418C323-7848-48D6-94C8-9687E9FE5624}"/>
   </bookViews>
   <sheets>
     <sheet name="CHRNA3" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,27 @@
     <sheet name="CHRNA5" sheetId="3" r:id="rId3"/>
     <sheet name="GRIK3" sheetId="4" r:id="rId4"/>
     <sheet name="CLYBL" sheetId="5" r:id="rId5"/>
+    <sheet name="TPRM3  70790948T&gt;C " sheetId="6" r:id="rId6"/>
+    <sheet name=" 70699095A&gt;G " sheetId="7" r:id="rId7"/>
+    <sheet name="TRPM3  70801146= " sheetId="8" r:id="rId8"/>
+    <sheet name="TRPM3 A70610886C" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="256">
   <si>
     <t>Type</t>
   </si>
@@ -616,13 +624,7 @@
     <t>NC000001_1.11:g.1111_9999</t>
   </si>
   <si>
-    <t>NC000001_1.11:g.2222T&gt;G</t>
-  </si>
-  <si>
     <t>T928G</t>
-  </si>
-  <si>
-    <t>NC_000001.11:g.36983994C&gt;T</t>
   </si>
   <si>
     <t>C36983994T</t>
@@ -806,6 +808,166 @@
   </si>
   <si>
     <t xml:space="preserve">    # What does this mean? &lt;# wildtype #&gt; </t>
+  </si>
+  <si>
+    <t>transient receptor potential cation channel subfamily M member 3</t>
+  </si>
+  <si>
+    <t>TRPM3 controls [calcium channels](http://www.uniprot.org/uniprot/Q9HCF6#expression) that help detect temperature and pain. For ME/CFS patients, changes in the gene are linked with [insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) like diabetes and hypoglycemia, [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), [problems maintaining body temperature](http://pediatrics.aappublications.org/content/120/1/e129.short), vision problems like [cataracts and glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), and decreased function of [natural killer cells (NKC)](https://www.ncbi.nlm.nih.gov/pubmed/27099524), a type of white blood cell that helps the body respond to viral infections and inflammation. Other immune system issues include [releasing a type of white blood cells causing inflammation](http://jme.endocrinology-journals.org/content/50/3/R75.short). Impaired pain channels may lead to [generalized pain and nervous system ](https://link.springer.com/article/10.1007/s10067-006-0433-9)problems like [inflammatory pain syndromes and rheumatoid arthritis](http://jme.endocrinology-journals.org/content/50/3/R75.short).</t>
+  </si>
+  <si>
+    <t>brain and kidneys.</t>
+  </si>
+  <si>
+    <t>TRPM3</t>
+  </si>
+  <si>
+    <t>NC_000009.12:g.70529063_71446950</t>
+  </si>
+  <si>
+    <t>nineteen</t>
+  </si>
+  <si>
+    <t>NC_000009.12:g.70790948T&gt;C</t>
+  </si>
+  <si>
+    <t>T70790948C</t>
+  </si>
+  <si>
+    <t>[T70790948C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=10118380)</t>
+  </si>
+  <si>
+    <t>NC_000009.12:g.</t>
+  </si>
+  <si>
+    <t>[70790948T&gt;C]</t>
+  </si>
+  <si>
+    <t>[70790948=]</t>
+  </si>
+  <si>
+    <t>Your variant is [2.6X](https://www.ncbi.nlm.nih.gov/pubmed/27835969) more common in ME/CFS patients. It causes the CHRNB4 protein to be malformed, which impacts natural killer cell (NKC) activity. Natural killer cells are a type of white blood cell found in the blood, bone marrow, spleen, and lymph nodes. They kill viral infected cells and tumorous cells. Many patients with ME/CFS have NKC with lower functional ability to fight infections, and [this impairment is associated with increased illness severity](https://www.cdc.gov/me-cfs/about/possible-causes.html). Compared with the general population, CFS patients have NKC that are [half as effective](https://www.ncbi.nlm.nih.gov/pubmed/27099524).
+    # What should I do about this?
+    [Histone deacetylase inhibitors (HDACi), including suberoylanilide hydroxamic acid and valproic acid,](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided.
+    Pharmaceuticals that increase natural killer cell function include:
+    - [Antiviral drugs such as acyclovir and ganciclovir](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may improve cellular function. 
+    - [Papillomavirus therapies, including topical agents and immunostimulants,](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may activate NK cells. 
+    - [Cytokine therapies](https://www.ncbi.nlm.nih.gov/pubmed/23993353), such as [IFN-α](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet) in CNKD1, may induce higher levels of NKC activity by [activating white blood cells](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet). 
+    Dietary supplements that increase natural killer cell function include:
+    - [Zinc](https://www.ncbi.nlm.nih.gov/pubmed/27021581) helps to improve immune system activity and response.  
+    - [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) dietary supplements stimulate the immune system by increasing NKC function. 
+    - [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), found in food and red wine, may increase NKC activity. 
+    - [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), found in onions and fruits, may improve NKC and T cell function. 
+    - [Inositol hexaphosphate (IP6), found in germ, bran, and whole kernel corn](https://www.ncbi.nlm.nih.gov/pubmed/11366552) may activate the immune system and help fight bacterial and fungal infections. 
+    - [Arabinoxylan rice bran (MGN-3/Biobran](https://www.ncbi.nlm.nih.gov/pubmed/25541298) increases activation and stimulates cell killing activity. 
+    - [Bulgarian yogurt fermented with L. delbrueckii ssp. Bulgaricus augments NKC activity.](https://www.ncbi.nlm.nih.gov/pubmed/26686726)</t>
+  </si>
+  <si>
+    <t>Your variant is [1.2X](https://www.ncbi.nlm.nih.gov/pubmed/27835969) more common in ME/CFS patients. It causes the CHRNB4 protein to be malformed, which impacts natural killer cell (NKC) activity. Natural killer cells are a type of white blood cell found in the blood, bone marrow, spleen, and lymph nodes. They kill viral infected cells and tumorous cells. Many patients with ME/CFS have NKC with lower functional ability to fight infections, and [this impairment is associated with increased illness severity](https://www.cdc.gov/me-cfs/about/possible-causes.html). Compared with the general population, CFS patients have NKC that are [half as effective](https://www.ncbi.nlm.nih.gov/pubmed/27099524).
+    # What should I do about this?
+    [Histone deacetylase inhibitors (HDACi), including suberoylanilide hydroxamic acid and valproic acid,](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided.
+    Pharmaceuticals that increase natural killer cell function include:
+    - [Antiviral drugs such as acyclovir and ganciclovir](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may improve cellular function. 
+    - [Papillomavirus therapies, including topical agents and immunostimulants,](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may activate NK cells. 
+    - [Cytokine therapies](https://www.ncbi.nlm.nih.gov/pubmed/23993353), such as [IFN-α](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet) in CNKD1, may induce higher levels of NKC activity by [activating white blood cells](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet). 
+    Dietary supplements that increase natural killer cell function include:
+    - [Zinc](https://www.ncbi.nlm.nih.gov/pubmed/27021581) helps to improve immune system activity and response.  
+    - [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) dietary supplements stimulate the immune system by increasing NKC function. 
+    - [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), found in food and red wine, may increase NKC activity. 
+    - [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), found in onions and fruits, may improve NKC and T cell function. 
+    - [Inositol hexaphosphate (IP6), found in germ, bran, and whole kernel corn](https://www.ncbi.nlm.nih.gov/pubmed/11366552) may activate the immune system and help fight bacterial and fungal infections. 
+    - [Arabinoxylan rice bran (MGN-3/Biobran](https://www.ncbi.nlm.nih.gov/pubmed/25541298) increases activation and stimulates cell killing activity. 
+    - [Bulgarian yogurt fermented with L. delbrueckii ssp. Bulgaricus augments NKC activity.](https://www.ncbi.nlm.nih.gov/pubmed/26686726)</t>
+  </si>
+  <si>
+    <t>vision problems D014786 pain D010146 chills and night sweats D023341 multiple chemical sensitivity/allergies D018777 inflammation D007249</t>
+  </si>
+  <si>
+    <t>D014786 D010146 D023341 D018777 D007249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disease pain, chronic D059350; cataracts D002386 glaucoma D005901 arthritis D001168 arthritis, rheumatoid arthritis D001172 diabetes D003920 ME/CFS D004198 disease, Genetic Predisposition to Disease D020022; overactive bladder D053201; COPD D029424; cardiovascular disease D002318; alzheimers D000544; cancer D009369; skin diseases D012871; </t>
+  </si>
+  <si>
+    <t>D059350 D002386 D005901 D001168 D001172 D003920 D004198 D020022 D053201 D029424 D002318 D000544 D009369 D012871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain and nervous system; Kidney and urinary bladder D005221 </t>
+  </si>
+  <si>
+    <t>D005837 D004703</t>
+  </si>
+  <si>
+    <t>[A70699095G](http://journals.sagepub.com/doi/10.4137/III.S25147)</t>
+  </si>
+  <si>
+    <t>NC_000009.12:g.70699095A&gt;G</t>
+  </si>
+  <si>
+    <t>[70699095A&gt;G]</t>
+  </si>
+  <si>
+    <t>[70699095=]</t>
+  </si>
+  <si>
+    <t>Your [variant](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common in ME/CFS patients than in the general population. TRPM3 channels transport calcium and zinc and maintains the body’s homeostasis. Incorrect function has been linked to [cataracts, glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), [heart problems, and skin diseases](https://www.ncbi.nlm.nih.gov/pubmed/27835969). In [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/27835969) patients, TRP channels targeted during inflammatory reactions, may play a role in [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), because they cause the body releases excess numbers of inflammation causing white blood cells. [Insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) (diabetes) is also found in ME/CFS patients with TRPM3 variants.
+    Improper functioning of the pain channels may lead to [generalized pain and central nervous system impairments without tissue damage](https://link.springer.com/article/10.1007/s10067-006-0433-9). This includes:
+    - [chronic inflammatory pain syndromes](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [rheumatoid arthritis](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [neuropathy](https://www.ncbi.nlm.nih.gov/pubmed/27835969)   
+    [Incorrect thermoregulatory responses, including significantly more shivering, sweating, sudden change of skin color, and feeling unusually warm,](http://pediatrics.aappublications.org/content/120/1/e129.short) have been reported in ME/CFS patients. This may be connected to improper functioning of TRPM3 temperature receptors.
+    # What should I do about this?
+    CFS patients should be aware of their difficulty in maintaining a stable body temperature and avoid large temperature swings. Blood sugar should be checked regularly to avoid insulin and blood sugar issues.
+    Chronic pain relief may include:
+    - [Nonsteroidal anti-inflammatory drugs](https://www.ncbi.nlm.nih.gov/pubmed/14997317/) 
+    - [Tricyclic antidepressants](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    - [Gabapentin, duloxetine, or pregabalin](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    [Multidisciplinary pain management programs](https://www.ncbi.nlm.nih.gov/pubmed/22550986), such as [cognitive behavioral therapy](https://www.ncbi.nlm.nih.gov/pubmed/11166973/)</t>
+  </si>
+  <si>
+    <t>Your [variant](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.75X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common in ME/CFS patients than in the general population. TRPM3 channels transport calcium and zinc and maintains the body’s homeostasis. Incorrect function has been linked to [cataracts, glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), [heart problems, and skin diseases](https://www.ncbi.nlm.nih.gov/pubmed/27835969). In [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/27835969) patients, TRP channels targeted during inflammatory reactions, may play a role in [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), because they cause the body releases excess numbers of inflammation causing white blood cells. [Insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) (diabetes) is also found in ME/CFS patients with TRPM3 variants.
+    Improper functioning of the pain channels may lead to [generalized pain and central nervous system impairments without tissue damage](https://link.springer.com/article/10.1007/s10067-006-0433-9). This includes:
+    - [chronic inflammatory pain syndromes](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [rheumatoid arthritis](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [neuropathy](https://www.ncbi.nlm.nih.gov/pubmed/27835969)   
+    [Incorrect thermoregulatory responses, including significantly more shivering, sweating, sudden change of skin color, and feeling unusually warm,](http://pediatrics.aappublications.org/content/120/1/e129.short) have been reported in ME/CFS patients. This may be connected to improper functioning of TRPM3 temperature receptors.
+    # What should I do about this?
+    CFS patients should be aware of their difficulty in maintaining a stable body temperature and avoid large temperature swings. Blood sugar should be checked regularly to avoid insulin and blood sugar issues.
+    Chronic pain relief may include:
+    - [Nonsteroidal anti-inflammatory drugs](https://www.ncbi.nlm.nih.gov/pubmed/14997317/) 
+    - [Tricyclic antidepressants](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    - [Gabapentin, duloxetine, or pregabalin](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    [Multidisciplinary pain management programs](https://www.ncbi.nlm.nih.gov/pubmed/22550986), such as [cognitive behavioral therapy](https://www.ncbi.nlm.nih.gov/pubmed/11166973/)</t>
+  </si>
+  <si>
+    <t>NC_000009.12:g.70801146G&gt;A</t>
+  </si>
+  <si>
+    <t>[C70801146T](http://journals.sagepub.com/doi/10.4137/III.S25147)</t>
+  </si>
+  <si>
+    <t>[70801146G&gt;A]</t>
+  </si>
+  <si>
+    <t>[70801146=]</t>
+  </si>
+  <si>
+    <t>NC_000009.12:g.70610886T&gt;A</t>
+  </si>
+  <si>
+    <t>[A70610886C](http://journals.sagepub.com/doi/10.4137/III.S25147)</t>
+  </si>
+  <si>
+    <t>[70610886T&gt;A]</t>
+  </si>
+  <si>
+    <t>[70610886=]</t>
+  </si>
+  <si>
+    <t>NC_000001.10:g.37325477A&gt;G</t>
+  </si>
+  <si>
+    <t>NC_000001.10:g.37449595C&gt;T</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1488,7 @@
   <dimension ref="A1:AJ2323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8464,8 +8626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E81E4-7873-40DD-85B0-9CD94B08F292}">
   <dimension ref="A1:AJ190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8561,7 +8723,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
@@ -8644,7 +8806,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
@@ -8755,7 +8917,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>20</v>
@@ -8820,13 +8982,13 @@
         <v xml:space="preserve">&lt;GeneAnalysis gene="GRIK3" interval="NC000001_1.11:g.1111_9999"&gt; </v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -8861,13 +9023,13 @@
         <v>167</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -8906,13 +9068,13 @@
         <v># What are some common variants of GRIK3?</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -8992,14 +9154,14 @@
         <f>CONCATENATE("A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect ", B11," function. There are ",B16," common variants in ",B14,": ",B25,", ",B31,", and ",B37,".")</f>
         <v>A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect protein function. There are three common variants in GRIK3: [T928G](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=6691840)[(Ser310Ala)](https://www.ncbi.nlm.nih.gov/pubmed/11986986), [C36983994T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=3913434), and [A7783504C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=270838).</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -9114,14 +9276,14 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Variant hgvs="NC000001_1.11:g.2222T&gt;G" name="T928G"&gt; </v>
-      </c>
-      <c r="H21" t="s">
-        <v>189</v>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000001.10:g.37325477A&gt;G" name="T928G"&gt; </v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>32</v>
@@ -9159,7 +9321,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22">
         <v>19.899999999999999</v>
@@ -9293,7 +9455,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -9346,11 +9508,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="C27" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B27,CHAR(34)," name=",CHAR(34),B28,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Variant hgvs="NC_000001.11:g.36983994C&gt;T" name="C36983994T"&gt; </v>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000001.10:g.37449595C&gt;T" name="C36983994T"&gt; </v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -9358,7 +9520,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -9387,7 +9549,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C31" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -9406,8 +9568,8 @@
       <c r="A33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B33" t="s">
-        <v>172</v>
+      <c r="B33" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="C33" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B33,CHAR(34)," name=",CHAR(34),B34,CHAR(34),"&gt; ")</f>
@@ -9419,7 +9581,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9448,7 +9610,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C37" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -9707,7 +9869,7 @@
         <v>37.1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -10001,7 +10163,7 @@
         <v>97.8</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -10295,7 +10457,7 @@
         <v>79.5</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -10498,7 +10660,7 @@
         <v>50</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C180" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A180," ",B180," #&gt;")</f>
@@ -10507,7 +10669,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B182" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C182" s="3" t="str">
         <f>CONCATENATE("&lt;symptoms ",B182," /&gt;")</f>
@@ -10519,7 +10681,7 @@
         <v>51</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C184" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A184," ",B184," #&gt;")</f>
@@ -10528,7 +10690,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B186" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C186" s="3" t="str">
         <f>CONCATENATE("&lt;TissueList ",B186," /&gt;")</f>
@@ -10543,7 +10705,7 @@
         <v>52</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C188" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A188," ",B188," #&gt;")</f>
@@ -10552,7 +10714,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B190" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C190" s="3" t="str">
         <f>CONCATENATE("&lt;diseases ",B190," /&gt;")</f>
@@ -10569,8 +10731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4606A235-C6E1-4612-9BDB-2EECBE515F8F}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A100" sqref="A1:H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10606,7 +10768,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
@@ -10643,7 +10805,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
@@ -10724,7 +10886,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
@@ -10813,7 +10975,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -10843,7 +11005,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -10891,7 +11053,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
@@ -10902,7 +11064,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I14" s="30"/>
       <c r="K14" s="18"/>
@@ -10914,7 +11076,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -10922,7 +11084,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -10935,7 +11097,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
@@ -10946,7 +11108,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -10984,7 +11146,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -11033,7 +11195,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
@@ -11044,7 +11206,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -11057,7 +11219,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -11124,7 +11286,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -11759,7 +11921,7 @@
         <v>93.8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -11925,7 +12087,7 @@
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12082,7 +12244,7 @@
         <v>50</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C90" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A90," ",B90," #&gt;")</f>
@@ -12117,7 +12279,7 @@
     <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C92" s="3" t="str">
         <f>CONCATENATE("&lt;symptoms ",B92," /&gt;")</f>
@@ -12154,7 +12316,7 @@
         <v>51</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C94" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A94," ",B94," #&gt;")</f>
@@ -12189,7 +12351,7 @@
     <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C96" s="3" t="str">
         <f>CONCATENATE("&lt;TissueList ",B96," /&gt;")</f>
@@ -12226,7 +12388,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C98" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A98," ",B98," #&gt;")</f>
@@ -12261,7 +12423,7 @@
     <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C100" s="3" t="str">
         <f>CONCATENATE("&lt;diseases ",B100," /&gt;")</f>
@@ -12281,4 +12443,5715 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8550A794-020A-401E-820F-850FEE07699C}">
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
+        <v>&lt;Gene_Name TRPM3 /&gt;</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
+        <v>&lt;GeneName_full transient receptor potential cation channel subfamily M member 3 /&gt;</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="str">
+        <f>CONCATENATE("# What does the ",B2," gene do?")</f>
+        <v># What does the TRPM3 gene do?</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
+        <v>TRPM3 controls [calcium channels](http://www.uniprot.org/uniprot/Q9HCF6#expression) that help detect temperature and pain. For ME/CFS patients, changes in the gene are linked with [insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) like diabetes and hypoglycemia, [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), [problems maintaining body temperature](http://pediatrics.aappublications.org/content/120/1/e129.short), vision problems like [cataracts and glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), and decreased function of [natural killer cells (NKC)](https://www.ncbi.nlm.nih.gov/pubmed/27099524), a type of white blood cell that helps the body respond to viral infections and inflammation. Other immune system issues include [releasing a type of white blood cells causing inflammation](http://jme.endocrinology-journals.org/content/50/3/R75.short). Impaired pain channels may lead to [generalized pain and nervous system ](https://link.springer.com/article/10.1007/s10067-006-0433-9)problems like [inflammatory pain syndromes and rheumatoid arthritis](http://jme.endocrinology-journals.org/content/50/3/R75.short). This gene is located on chromosome 9.</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="str">
+        <f>B22</f>
+        <v>T70790948C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">&lt;GeneAnalysis gene="TRPM3" interval="NC_000009.12:g.70529063_71446950"&gt; </v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
+        <v># What are some common variants of TRPM3?</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="9" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B25," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [T70790948C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=10118380) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="C18" s="3" t="str">
+        <f>CONCATENATE("A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect ", B11," function. There is ",B16," common variant in ",B14,": ",B25,".")</f>
+        <v>A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect protein function. There is nineteen common variant in TRPM3: [T70790948C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=10118380).</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",B22," #&gt;")</f>
+        <v>&lt;# T70790948C #&gt;</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B25," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [T70790948C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=10118380) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000009.12:g.70790948T&gt;C" name="T70790948C"&gt; </v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f>CONCATENATE("    Instead of ",B23,", there is an ",B24," nucleotide.")</f>
+        <v xml:space="preserve">    Instead of thymine (T), there is an cytosine (C) nucleotide.</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f>"cytosine (C)"</f>
+        <v>cytosine (C)</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f>"  &lt;/Variant&gt;"</f>
+        <v xml:space="preserve">  &lt;/Variant&gt;</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="24">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17" t="str">
+        <f>C20</f>
+        <v>&lt;# T70790948C #&gt;</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="22" t="str">
+        <f>H14</f>
+        <v>NC_000009.12:g.</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B29,";",B30,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70790948T&gt;C];[70790948=]" name="T70790948C"&gt; </v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="22" t="str">
+        <f t="shared" ref="B29:B33" si="0">H15</f>
+        <v>[70790948T&gt;C]</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>[70790948=]</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f>CONCATENATE("    # What does this mean?   &lt;# ",B29,";",B30,", one variant #&gt; ")</f>
+        <v xml:space="preserve">    # What does this mean?   &lt;# [70790948T&gt;C];[70790948=], one variant #&gt; </v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>People with this variant have one copy of the [T70790948C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=10118380) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Your variant is [2.6X](https://www.ncbi.nlm.nih.gov/pubmed/27835969) more common in ME/CFS patients. It causes the CHRNB4 protein to be malformed, which impacts natural killer cell (NKC) activity. Natural killer cells are a type of white blood cell found in the blood, bone marrow, spleen, and lymph nodes. They kill viral infected cells and tumorous cells. Many patients with ME/CFS have NKC with lower functional ability to fight infections, and [this impairment is associated with increased illness severity](https://www.cdc.gov/me-cfs/about/possible-causes.html). Compared with the general population, CFS patients have NKC that are [half as effective](https://www.ncbi.nlm.nih.gov/pubmed/27099524).
+    # What should I do about this?
+    [Histone deacetylase inhibitors (HDACi), including suberoylanilide hydroxamic acid and valproic acid,](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided.
+    Pharmaceuticals that increase natural killer cell function include:
+    - [Antiviral drugs such as acyclovir and ganciclovir](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may improve cellular function. 
+    - [Papillomavirus therapies, including topical agents and immunostimulants,](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may activate NK cells. 
+    - [Cytokine therapies](https://www.ncbi.nlm.nih.gov/pubmed/23993353), such as [IFN-α](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet) in CNKD1, may induce higher levels of NKC activity by [activating white blood cells](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet). 
+    Dietary supplements that increase natural killer cell function include:
+    - [Zinc](https://www.ncbi.nlm.nih.gov/pubmed/27021581) helps to improve immune system activity and response.  
+    - [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) dietary supplements stimulate the immune system by increasing NKC function. 
+    - [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), found in food and red wine, may increase NKC activity. 
+    - [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), found in onions and fruits, may improve NKC and T cell function. 
+    - [Inositol hexaphosphate (IP6), found in germ, bran, and whole kernel corn](https://www.ncbi.nlm.nih.gov/pubmed/11366552) may activate the immune system and help fight bacterial and fungal infections. 
+    - [Arabinoxylan rice bran (MGN-3/Biobran](https://www.ncbi.nlm.nih.gov/pubmed/25541298) increases activation and stimulates cell killing activity. 
+    - [Bulgarian yogurt fermented with L. delbrueckii ssp. Bulgaricus augments NKC activity.](https://www.ncbi.nlm.nih.gov/pubmed/26686726)</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f>CONCATENATE("    ",B31)</f>
+        <v xml:space="preserve">    People with this variant have one copy of the [T70790948C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=10118380) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="22">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="3" t="str">
+        <f>CONCATENATE("    ",B32)</f>
+        <v xml:space="preserve">    Your variant is [2.6X](https://www.ncbi.nlm.nih.gov/pubmed/27835969) more common in ME/CFS patients. It causes the CHRNB4 protein to be malformed, which impacts natural killer cell (NKC) activity. Natural killer cells are a type of white blood cell found in the blood, bone marrow, spleen, and lymph nodes. They kill viral infected cells and tumorous cells. Many patients with ME/CFS have NKC with lower functional ability to fight infections, and [this impairment is associated with increased illness severity](https://www.cdc.gov/me-cfs/about/possible-causes.html). Compared with the general population, CFS patients have NKC that are [half as effective](https://www.ncbi.nlm.nih.gov/pubmed/27099524).
+    # What should I do about this?
+    [Histone deacetylase inhibitors (HDACi), including suberoylanilide hydroxamic acid and valproic acid,](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided.
+    Pharmaceuticals that increase natural killer cell function include:
+    - [Antiviral drugs such as acyclovir and ganciclovir](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may improve cellular function. 
+    - [Papillomavirus therapies, including topical agents and immunostimulants,](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may activate NK cells. 
+    - [Cytokine therapies](https://www.ncbi.nlm.nih.gov/pubmed/23993353), such as [IFN-α](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet) in CNKD1, may induce higher levels of NKC activity by [activating white blood cells](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet). 
+    Dietary supplements that increase natural killer cell function include:
+    - [Zinc](https://www.ncbi.nlm.nih.gov/pubmed/27021581) helps to improve immune system activity and response.  
+    - [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) dietary supplements stimulate the immune system by increasing NKC function. 
+    - [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), found in food and red wine, may increase NKC activity. 
+    - [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), found in onions and fruits, may improve NKC and T cell function. 
+    - [Inositol hexaphosphate (IP6), found in germ, bran, and whole kernel corn](https://www.ncbi.nlm.nih.gov/pubmed/11366552) may activate the immune system and help fight bacterial and fungal infections. 
+    - [Arabinoxylan rice bran (MGN-3/Biobran](https://www.ncbi.nlm.nih.gov/pubmed/25541298) increases activation and stimulates cell killing activity. 
+    - [Bulgarian yogurt fermented with L. delbrueckii ssp. Bulgaricus augments NKC activity.](https://www.ncbi.nlm.nih.gov/pubmed/26686726)</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B33," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=5.3 /&gt;</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f>H20</f>
+        <v>People with this variant have two copies of the [T70790948C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=10118380) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B29,";",B29,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70790948T&gt;C];[70790948T&gt;C]" name="T70790948C"&gt; </v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" ref="B43:B44" si="1">H21</f>
+        <v>Your variant is [1.2X](https://www.ncbi.nlm.nih.gov/pubmed/27835969) more common in ME/CFS patients. It causes the CHRNB4 protein to be malformed, which impacts natural killer cell (NKC) activity. Natural killer cells are a type of white blood cell found in the blood, bone marrow, spleen, and lymph nodes. They kill viral infected cells and tumorous cells. Many patients with ME/CFS have NKC with lower functional ability to fight infections, and [this impairment is associated with increased illness severity](https://www.cdc.gov/me-cfs/about/possible-causes.html). Compared with the general population, CFS patients have NKC that are [half as effective](https://www.ncbi.nlm.nih.gov/pubmed/27099524).
+    # What should I do about this?
+    [Histone deacetylase inhibitors (HDACi), including suberoylanilide hydroxamic acid and valproic acid,](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided.
+    Pharmaceuticals that increase natural killer cell function include:
+    - [Antiviral drugs such as acyclovir and ganciclovir](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may improve cellular function. 
+    - [Papillomavirus therapies, including topical agents and immunostimulants,](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may activate NK cells. 
+    - [Cytokine therapies](https://www.ncbi.nlm.nih.gov/pubmed/23993353), such as [IFN-α](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet) in CNKD1, may induce higher levels of NKC activity by [activating white blood cells](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet). 
+    Dietary supplements that increase natural killer cell function include:
+    - [Zinc](https://www.ncbi.nlm.nih.gov/pubmed/27021581) helps to improve immune system activity and response.  
+    - [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) dietary supplements stimulate the immune system by increasing NKC function. 
+    - [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), found in food and red wine, may increase NKC activity. 
+    - [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), found in onions and fruits, may improve NKC and T cell function. 
+    - [Inositol hexaphosphate (IP6), found in germ, bran, and whole kernel corn](https://www.ncbi.nlm.nih.gov/pubmed/11366552) may activate the immune system and help fight bacterial and fungal infections. 
+    - [Arabinoxylan rice bran (MGN-3/Biobran](https://www.ncbi.nlm.nih.gov/pubmed/25541298) increases activation and stimulates cell killing activity. 
+    - [Bulgarian yogurt fermented with L. delbrueckii ssp. Bulgaricus augments NKC activity.](https://www.ncbi.nlm.nih.gov/pubmed/26686726)</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="9">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f>CONCATENATE("    # What does this mean?  &lt;# ",B29,";",B29,", two variants #&gt; ")</f>
+        <v xml:space="preserve">    # What does this mean?  &lt;# [70790948T&gt;C];[70790948T&gt;C], two variants #&gt; </v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="3" t="str">
+        <f>CONCATENATE("    ",B42)</f>
+        <v xml:space="preserve">    People with this variant have two copies of the [T70790948C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=10118380) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="3" t="str">
+        <f>CONCATENATE("    ",B43)</f>
+        <v xml:space="preserve">    Your variant is [1.2X](https://www.ncbi.nlm.nih.gov/pubmed/27835969) more common in ME/CFS patients. It causes the CHRNB4 protein to be malformed, which impacts natural killer cell (NKC) activity. Natural killer cells are a type of white blood cell found in the blood, bone marrow, spleen, and lymph nodes. They kill viral infected cells and tumorous cells. Many patients with ME/CFS have NKC with lower functional ability to fight infections, and [this impairment is associated with increased illness severity](https://www.cdc.gov/me-cfs/about/possible-causes.html). Compared with the general population, CFS patients have NKC that are [half as effective](https://www.ncbi.nlm.nih.gov/pubmed/27099524).
+    # What should I do about this?
+    [Histone deacetylase inhibitors (HDACi), including suberoylanilide hydroxamic acid and valproic acid,](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided.
+    Pharmaceuticals that increase natural killer cell function include:
+    - [Antiviral drugs such as acyclovir and ganciclovir](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may improve cellular function. 
+    - [Papillomavirus therapies, including topical agents and immunostimulants,](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may activate NK cells. 
+    - [Cytokine therapies](https://www.ncbi.nlm.nih.gov/pubmed/23993353), such as [IFN-α](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet) in CNKD1, may induce higher levels of NKC activity by [activating white blood cells](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet). 
+    Dietary supplements that increase natural killer cell function include:
+    - [Zinc](https://www.ncbi.nlm.nih.gov/pubmed/27021581) helps to improve immune system activity and response.  
+    - [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) dietary supplements stimulate the immune system by increasing NKC function. 
+    - [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), found in food and red wine, may increase NKC activity. 
+    - [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), found in onions and fruits, may improve NKC and T cell function. 
+    - [Inositol hexaphosphate (IP6), found in germ, bran, and whole kernel corn](https://www.ncbi.nlm.nih.gov/pubmed/11366552) may activate the immune system and help fight bacterial and fungal infections. 
+    - [Arabinoxylan rice bran (MGN-3/Biobran](https://www.ncbi.nlm.nih.gov/pubmed/25541298) increases activation and stimulates cell killing activity. 
+    - [Bulgarian yogurt fermented with L. delbrueckii ssp. Bulgaricus augments NKC activity.](https://www.ncbi.nlm.nih.gov/pubmed/26686726)</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B44," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=0.9 /&gt;</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="9" t="str">
+        <f>H23</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B30,";",B30,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70790948=];[70790948=]" name="T70790948C"&gt; </v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="9" t="str">
+        <f t="shared" ref="B57:B58" si="2">H24</f>
+        <v>This variant is not associated with increased risk.</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="9">
+        <f t="shared" si="2"/>
+        <v>93.8</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="3" t="str">
+        <f>CONCATENATE("    ",B56)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B58," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=93.8 /&gt;</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has an unknown variant.")</f>
+        <v>Your TRPM3 gene has an unknown variant.</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"unknown",CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="unknown"&gt; </v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="3" t="str">
+        <f>CONCATENATE("    ",B67)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has an unknown variant.</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B69," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"wildtype",CHAR(34),"&gt;")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="wildtype"&gt;</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="3" t="str">
+        <f>CONCATENATE("    ",B78)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B80," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="3" t="str">
+        <f>"&lt;/GeneAnalysis&gt;"</f>
+        <v>&lt;/GeneAnalysis&gt;</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A90," ",B90," #&gt;")</f>
+        <v>&lt;# symptoms vision problems D014786 pain D010146 chills and night sweats D023341 multiple chemical sensitivity/allergies D018777 inflammation D007249 #&gt;</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f>CONCATENATE("&lt;symptoms ",B92," /&gt;")</f>
+        <v>&lt;symptoms D014786 D010146 D023341 D018777 D007249 /&gt;</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A94," ",B94," #&gt;")</f>
+        <v>&lt;# Tissue List Brain and nervous system; Kidney and urinary bladder D005221  #&gt;</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="3" t="str">
+        <f>CONCATENATE("&lt;TissueList ",B96," /&gt;")</f>
+        <v>&lt;TissueList D005837 D004703 /&gt;</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C98" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A98," ",B98," #&gt;")</f>
+        <v>&lt;# Diseases disease pain, chronic D059350; cataracts D002386 glaucoma D005901 arthritis D001168 arthritis, rheumatoid arthritis D001172 diabetes D003920 ME/CFS D004198 disease, Genetic Predisposition to Disease D020022; overactive bladder D053201; COPD D029424; cardiovascular disease D002318; alzheimers D000544; cancer D009369; skin diseases D012871;  #&gt;</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="3" t="str">
+        <f>CONCATENATE("&lt;diseases ",B100," /&gt;")</f>
+        <v>&lt;diseases D059350 D002386 D005901 D001168 D001172 D003920 D004198 D020022 D053201 D029424 D002318 D000544 D009369 D012871 /&gt;</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76713021-DDDD-4E25-A395-38CBF2347983}">
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
+        <v>&lt;Gene_Name TRPM3 /&gt;</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
+        <v>&lt;GeneName_full transient receptor potential cation channel subfamily M member 3 /&gt;</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="str">
+        <f>CONCATENATE("# What does the ",B2," gene do?")</f>
+        <v># What does the TRPM3 gene do?</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
+        <v>TRPM3 controls [calcium channels](http://www.uniprot.org/uniprot/Q9HCF6#expression) that help detect temperature and pain. For ME/CFS patients, changes in the gene are linked with [insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) like diabetes and hypoglycemia, [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), [problems maintaining body temperature](http://pediatrics.aappublications.org/content/120/1/e129.short), vision problems like [cataracts and glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), and decreased function of [natural killer cells (NKC)](https://www.ncbi.nlm.nih.gov/pubmed/27099524), a type of white blood cell that helps the body respond to viral infections and inflammation. Other immune system issues include [releasing a type of white blood cells causing inflammation](http://jme.endocrinology-journals.org/content/50/3/R75.short). Impaired pain channels may lead to [generalized pain and nervous system ](https://link.springer.com/article/10.1007/s10067-006-0433-9)problems like [inflammatory pain syndromes and rheumatoid arthritis](http://jme.endocrinology-journals.org/content/50/3/R75.short). This gene is located on chromosome 9.</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="str">
+        <f>B22</f>
+        <v>A70699095G</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">&lt;GeneAnalysis gene="TRPM3" interval="NC_000009.12:g.70529063_71446950"&gt; </v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
+        <v># What are some common variants of TRPM3?</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="9" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B25," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [A70699095G](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="C18" s="3" t="str">
+        <f>CONCATENATE("A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect ", B11," function. There is ",B16," common variant in ",B14,": ",B25,".")</f>
+        <v>A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect protein function. There is nineteen common variant in TRPM3: [A70699095G](http://journals.sagepub.com/doi/10.4137/III.S25147).</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",B22," #&gt;")</f>
+        <v>&lt;# A70699095G #&gt;</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B25," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [A70699095G](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000009.12:g.70699095A&gt;G" name="A70699095G"&gt; </v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="9">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f>CONCATENATE("    Instead of ",B23,", there is an ",B24," nucleotide.")</f>
+        <v xml:space="preserve">    Instead of adenine (A), there is an guanine (G) nucleotide.</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f>"  &lt;/Variant&gt;"</f>
+        <v xml:space="preserve">  &lt;/Variant&gt;</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="9">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17" t="str">
+        <f>C20</f>
+        <v>&lt;# A70699095G #&gt;</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="22" t="str">
+        <f>H14</f>
+        <v>NC_000009.12:g.</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B29,";",B30,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70699095A&gt;G];[70699095=]" name="A70699095G"&gt; </v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="22" t="str">
+        <f t="shared" ref="B29:B33" si="0">H15</f>
+        <v>[70699095A&gt;G]</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>[70699095=]</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f>CONCATENATE("    # What does this mean?   &lt;# ",B29,";",B30,", one variant #&gt; ")</f>
+        <v xml:space="preserve">    # What does this mean?   &lt;# [70699095A&gt;G];[70699095=], one variant #&gt; </v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>People with this variant have one copy of the [A70699095G](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Your [variant](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common in ME/CFS patients than in the general population. TRPM3 channels transport calcium and zinc and maintains the body’s homeostasis. Incorrect function has been linked to [cataracts, glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), [heart problems, and skin diseases](https://www.ncbi.nlm.nih.gov/pubmed/27835969). In [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/27835969) patients, TRP channels targeted during inflammatory reactions, may play a role in [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), because they cause the body releases excess numbers of inflammation causing white blood cells. [Insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) (diabetes) is also found in ME/CFS patients with TRPM3 variants.
+    Improper functioning of the pain channels may lead to [generalized pain and central nervous system impairments without tissue damage](https://link.springer.com/article/10.1007/s10067-006-0433-9). This includes:
+    - [chronic inflammatory pain syndromes](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [rheumatoid arthritis](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [neuropathy](https://www.ncbi.nlm.nih.gov/pubmed/27835969)   
+    [Incorrect thermoregulatory responses, including significantly more shivering, sweating, sudden change of skin color, and feeling unusually warm,](http://pediatrics.aappublications.org/content/120/1/e129.short) have been reported in ME/CFS patients. This may be connected to improper functioning of TRPM3 temperature receptors.
+    # What should I do about this?
+    CFS patients should be aware of their difficulty in maintaining a stable body temperature and avoid large temperature swings. Blood sugar should be checked regularly to avoid insulin and blood sugar issues.
+    Chronic pain relief may include:
+    - [Nonsteroidal anti-inflammatory drugs](https://www.ncbi.nlm.nih.gov/pubmed/14997317/) 
+    - [Tricyclic antidepressants](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    - [Gabapentin, duloxetine, or pregabalin](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    [Multidisciplinary pain management programs](https://www.ncbi.nlm.nih.gov/pubmed/22550986), such as [cognitive behavioral therapy](https://www.ncbi.nlm.nih.gov/pubmed/11166973/)</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f>CONCATENATE("    ",B31)</f>
+        <v xml:space="preserve">    People with this variant have one copy of the [A70699095G](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="22">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="3" t="str">
+        <f>CONCATENATE("    ",B32)</f>
+        <v xml:space="preserve">    Your [variant](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common in ME/CFS patients than in the general population. TRPM3 channels transport calcium and zinc and maintains the body’s homeostasis. Incorrect function has been linked to [cataracts, glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), [heart problems, and skin diseases](https://www.ncbi.nlm.nih.gov/pubmed/27835969). In [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/27835969) patients, TRP channels targeted during inflammatory reactions, may play a role in [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), because they cause the body releases excess numbers of inflammation causing white blood cells. [Insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) (diabetes) is also found in ME/CFS patients with TRPM3 variants.
+    Improper functioning of the pain channels may lead to [generalized pain and central nervous system impairments without tissue damage](https://link.springer.com/article/10.1007/s10067-006-0433-9). This includes:
+    - [chronic inflammatory pain syndromes](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [rheumatoid arthritis](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [neuropathy](https://www.ncbi.nlm.nih.gov/pubmed/27835969)   
+    [Incorrect thermoregulatory responses, including significantly more shivering, sweating, sudden change of skin color, and feeling unusually warm,](http://pediatrics.aappublications.org/content/120/1/e129.short) have been reported in ME/CFS patients. This may be connected to improper functioning of TRPM3 temperature receptors.
+    # What should I do about this?
+    CFS patients should be aware of their difficulty in maintaining a stable body temperature and avoid large temperature swings. Blood sugar should be checked regularly to avoid insulin and blood sugar issues.
+    Chronic pain relief may include:
+    - [Nonsteroidal anti-inflammatory drugs](https://www.ncbi.nlm.nih.gov/pubmed/14997317/) 
+    - [Tricyclic antidepressants](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    - [Gabapentin, duloxetine, or pregabalin](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    [Multidisciplinary pain management programs](https://www.ncbi.nlm.nih.gov/pubmed/22550986), such as [cognitive behavioral therapy](https://www.ncbi.nlm.nih.gov/pubmed/11166973/)</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B33," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=50 /&gt;</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f>H20</f>
+        <v>People with this variant have two copies of the [A70699095G](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B29,";",B29,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70699095A&gt;G];[70699095A&gt;G]" name="A70699095G"&gt; </v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" ref="B43:B44" si="1">H21</f>
+        <v>Your [variant](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common in ME/CFS patients than in the general population. TRPM3 channels transport calcium and zinc and maintains the body’s homeostasis. Incorrect function has been linked to [cataracts, glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), [heart problems, and skin diseases](https://www.ncbi.nlm.nih.gov/pubmed/27835969). In [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/27835969) patients, TRP channels targeted during inflammatory reactions, may play a role in [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), because they cause the body releases excess numbers of inflammation causing white blood cells. [Insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) (diabetes) is also found in ME/CFS patients with TRPM3 variants.
+    Improper functioning of the pain channels may lead to [generalized pain and central nervous system impairments without tissue damage](https://link.springer.com/article/10.1007/s10067-006-0433-9). This includes:
+    - [chronic inflammatory pain syndromes](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [rheumatoid arthritis](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [neuropathy](https://www.ncbi.nlm.nih.gov/pubmed/27835969)   
+    [Incorrect thermoregulatory responses, including significantly more shivering, sweating, sudden change of skin color, and feeling unusually warm,](http://pediatrics.aappublications.org/content/120/1/e129.short) have been reported in ME/CFS patients. This may be connected to improper functioning of TRPM3 temperature receptors.
+    # What should I do about this?
+    CFS patients should be aware of their difficulty in maintaining a stable body temperature and avoid large temperature swings. Blood sugar should be checked regularly to avoid insulin and blood sugar issues.
+    Chronic pain relief may include:
+    - [Nonsteroidal anti-inflammatory drugs](https://www.ncbi.nlm.nih.gov/pubmed/14997317/) 
+    - [Tricyclic antidepressants](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    - [Gabapentin, duloxetine, or pregabalin](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    [Multidisciplinary pain management programs](https://www.ncbi.nlm.nih.gov/pubmed/22550986), such as [cognitive behavioral therapy](https://www.ncbi.nlm.nih.gov/pubmed/11166973/)</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="9">
+        <f t="shared" si="1"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f>CONCATENATE("    # What does this mean?  &lt;# ",B29,";",B29,", two variants #&gt; ")</f>
+        <v xml:space="preserve">    # What does this mean?  &lt;# [70699095A&gt;G];[70699095A&gt;G], two variants #&gt; </v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="3" t="str">
+        <f>CONCATENATE("    ",B42)</f>
+        <v xml:space="preserve">    People with this variant have two copies of the [A70699095G](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="3" t="str">
+        <f>CONCATENATE("    ",B43)</f>
+        <v xml:space="preserve">    Your [variant](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common in ME/CFS patients than in the general population. TRPM3 channels transport calcium and zinc and maintains the body’s homeostasis. Incorrect function has been linked to [cataracts, glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), [heart problems, and skin diseases](https://www.ncbi.nlm.nih.gov/pubmed/27835969). In [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/27835969) patients, TRP channels targeted during inflammatory reactions, may play a role in [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), because they cause the body releases excess numbers of inflammation causing white blood cells. [Insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) (diabetes) is also found in ME/CFS patients with TRPM3 variants.
+    Improper functioning of the pain channels may lead to [generalized pain and central nervous system impairments without tissue damage](https://link.springer.com/article/10.1007/s10067-006-0433-9). This includes:
+    - [chronic inflammatory pain syndromes](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [rheumatoid arthritis](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [neuropathy](https://www.ncbi.nlm.nih.gov/pubmed/27835969)   
+    [Incorrect thermoregulatory responses, including significantly more shivering, sweating, sudden change of skin color, and feeling unusually warm,](http://pediatrics.aappublications.org/content/120/1/e129.short) have been reported in ME/CFS patients. This may be connected to improper functioning of TRPM3 temperature receptors.
+    # What should I do about this?
+    CFS patients should be aware of their difficulty in maintaining a stable body temperature and avoid large temperature swings. Blood sugar should be checked regularly to avoid insulin and blood sugar issues.
+    Chronic pain relief may include:
+    - [Nonsteroidal anti-inflammatory drugs](https://www.ncbi.nlm.nih.gov/pubmed/14997317/) 
+    - [Tricyclic antidepressants](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    - [Gabapentin, duloxetine, or pregabalin](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    [Multidisciplinary pain management programs](https://www.ncbi.nlm.nih.gov/pubmed/22550986), such as [cognitive behavioral therapy](https://www.ncbi.nlm.nih.gov/pubmed/11166973/)</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B44," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=37.2 /&gt;</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="9" t="str">
+        <f>H23</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B30,";",B30,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70699095=];[70699095=]" name="A70699095G"&gt; </v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="9" t="str">
+        <f t="shared" ref="B57:B58" si="2">H24</f>
+        <v>This variant is not associated with increased risk.</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="9">
+        <f t="shared" si="2"/>
+        <v>12.8</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="3" t="str">
+        <f>CONCATENATE("    ",B56)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B58," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=12.8 /&gt;</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has an unknown variant.")</f>
+        <v>Your TRPM3 gene has an unknown variant.</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"unknown",CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="unknown"&gt; </v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="3" t="str">
+        <f>CONCATENATE("    ",B67)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has an unknown variant.</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B69," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"wildtype",CHAR(34),"&gt;")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="wildtype"&gt;</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="3" t="str">
+        <f>CONCATENATE("    ",B78)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B80," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="3" t="str">
+        <f>"&lt;/GeneAnalysis&gt;"</f>
+        <v>&lt;/GeneAnalysis&gt;</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A90," ",B90," #&gt;")</f>
+        <v>&lt;# symptoms vision problems D014786 pain D010146 chills and night sweats D023341 multiple chemical sensitivity/allergies D018777 inflammation D007249 #&gt;</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f>CONCATENATE("&lt;symptoms ",B92," /&gt;")</f>
+        <v>&lt;symptoms D014786 D010146 D023341 D018777 D007249 /&gt;</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A94," ",B94," #&gt;")</f>
+        <v>&lt;# Tissue List Brain and nervous system; Kidney and urinary bladder D005221  #&gt;</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="3" t="str">
+        <f>CONCATENATE("&lt;TissueList ",B96," /&gt;")</f>
+        <v>&lt;TissueList D005837 D004703 /&gt;</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C98" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A98," ",B98," #&gt;")</f>
+        <v>&lt;# Diseases disease pain, chronic D059350; cataracts D002386 glaucoma D005901 arthritis D001168 arthritis, rheumatoid arthritis D001172 diabetes D003920 ME/CFS D004198 disease, Genetic Predisposition to Disease D020022; overactive bladder D053201; COPD D029424; cardiovascular disease D002318; alzheimers D000544; cancer D009369; skin diseases D012871;  #&gt;</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="3" t="str">
+        <f>CONCATENATE("&lt;diseases ",B100," /&gt;")</f>
+        <v>&lt;diseases D059350 D002386 D005901 D001168 D001172 D003920 D004198 D020022 D053201 D029424 D002318 D000544 D009369 D012871 /&gt;</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2103A6AA-8734-4FC5-9E28-1BE3BD47082A}">
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
+        <v>&lt;Gene_Name TRPM3 /&gt;</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
+        <v>&lt;GeneName_full transient receptor potential cation channel subfamily M member 3 /&gt;</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="str">
+        <f>CONCATENATE("# What does the ",B2," gene do?")</f>
+        <v># What does the TRPM3 gene do?</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
+        <v>TRPM3 controls [calcium channels](http://www.uniprot.org/uniprot/Q9HCF6#expression) that help detect temperature and pain. For ME/CFS patients, changes in the gene are linked with [insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) like diabetes and hypoglycemia, [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), [problems maintaining body temperature](http://pediatrics.aappublications.org/content/120/1/e129.short), vision problems like [cataracts and glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), and decreased function of [natural killer cells (NKC)](https://www.ncbi.nlm.nih.gov/pubmed/27099524), a type of white blood cell that helps the body respond to viral infections and inflammation. Other immune system issues include [releasing a type of white blood cells causing inflammation](http://jme.endocrinology-journals.org/content/50/3/R75.short). Impaired pain channels may lead to [generalized pain and nervous system ](https://link.springer.com/article/10.1007/s10067-006-0433-9)problems like [inflammatory pain syndromes and rheumatoid arthritis](http://jme.endocrinology-journals.org/content/50/3/R75.short). This gene is located on chromosome 9.</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="str">
+        <f>B22</f>
+        <v>C70801146T</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">&lt;GeneAnalysis gene="TRPM3" interval="NC_000009.12:g.70529063_71446950"&gt; </v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
+        <v># What are some common variants of TRPM3?</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="9" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B25," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [C70801146T](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="C18" s="3" t="str">
+        <f>CONCATENATE("A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect ", B11," function. There is ",B16," common variant in ",B14,": ",B25,".")</f>
+        <v>A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect protein function. There is nineteen common variant in TRPM3: [C70801146T](http://journals.sagepub.com/doi/10.4137/III.S25147).</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="9">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",B22," #&gt;")</f>
+        <v>&lt;# C70801146T #&gt;</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B25," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [C70801146T](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000009.12:g.70801146G&gt;A" name="C70801146T"&gt; </v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>"cytosine (C)"</f>
+        <v>cytosine (C)</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f>CONCATENATE("    Instead of ",B23,", there is an ",B24," nucleotide.")</f>
+        <v xml:space="preserve">    Instead of cytosine (C), there is an thymine (T) nucleotide.</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f>"  &lt;/Variant&gt;"</f>
+        <v xml:space="preserve">  &lt;/Variant&gt;</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="9">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17" t="str">
+        <f>C20</f>
+        <v>&lt;# C70801146T #&gt;</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="22" t="str">
+        <f>H14</f>
+        <v>NC_000009.12:g.</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B29,";",B30,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70801146G&gt;A];[70801146=]" name="C70801146T"&gt; </v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="22" t="str">
+        <f t="shared" ref="B29:B33" si="0">H15</f>
+        <v>[70801146G&gt;A]</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>[70801146=]</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f>CONCATENATE("    # What does this mean?   &lt;# ",B29,";",B30,", one variant #&gt; ")</f>
+        <v xml:space="preserve">    # What does this mean?   &lt;# [70801146G&gt;A];[70801146=], one variant #&gt; </v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>People with this variant have one copy of the [C70801146T](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>This variant is not associated with increased risk.</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f>CONCATENATE("    ",B31)</f>
+        <v xml:space="preserve">    People with this variant have one copy of the [C70801146T](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="22">
+        <f t="shared" si="0"/>
+        <v>47.6</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="3" t="str">
+        <f>CONCATENATE("    ",B32)</f>
+        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B33," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=47.6 /&gt;</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f>H20</f>
+        <v>People with this variant have two copies of the [C70801146T](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B29,";",B29,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70801146G&gt;A];[70801146G&gt;A]" name="C70801146T"&gt; </v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" ref="B43:B44" si="1">H21</f>
+        <v>This variant is not associated with increased risk.</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="9">
+        <f t="shared" si="1"/>
+        <v>6.1</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f>CONCATENATE("    # What does this mean?  &lt;# ",B29,";",B29,", two variants #&gt; ")</f>
+        <v xml:space="preserve">    # What does this mean?  &lt;# [70801146G&gt;A];[70801146G&gt;A], two variants #&gt; </v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="3" t="str">
+        <f>CONCATENATE("    ",B42)</f>
+        <v xml:space="preserve">    People with this variant have two copies of the [C70801146T](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="3" t="str">
+        <f>CONCATENATE("    ",B43)</f>
+        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B44," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=6.1 /&gt;</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="9" t="str">
+        <f>H23</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B30,";",B30,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70801146=];[70801146=]" name="C70801146T"&gt; </v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="9" t="str">
+        <f t="shared" ref="B57:B58" si="2">H24</f>
+        <v>Your [variant](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.75X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common in ME/CFS patients than in the general population. TRPM3 channels transport calcium and zinc and maintains the body’s homeostasis. Incorrect function has been linked to [cataracts, glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), [heart problems, and skin diseases](https://www.ncbi.nlm.nih.gov/pubmed/27835969). In [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/27835969) patients, TRP channels targeted during inflammatory reactions, may play a role in [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), because they cause the body releases excess numbers of inflammation causing white blood cells. [Insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) (diabetes) is also found in ME/CFS patients with TRPM3 variants.
+    Improper functioning of the pain channels may lead to [generalized pain and central nervous system impairments without tissue damage](https://link.springer.com/article/10.1007/s10067-006-0433-9). This includes:
+    - [chronic inflammatory pain syndromes](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [rheumatoid arthritis](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [neuropathy](https://www.ncbi.nlm.nih.gov/pubmed/27835969)   
+    [Incorrect thermoregulatory responses, including significantly more shivering, sweating, sudden change of skin color, and feeling unusually warm,](http://pediatrics.aappublications.org/content/120/1/e129.short) have been reported in ME/CFS patients. This may be connected to improper functioning of TRPM3 temperature receptors.
+    # What should I do about this?
+    CFS patients should be aware of their difficulty in maintaining a stable body temperature and avoid large temperature swings. Blood sugar should be checked regularly to avoid insulin and blood sugar issues.
+    Chronic pain relief may include:
+    - [Nonsteroidal anti-inflammatory drugs](https://www.ncbi.nlm.nih.gov/pubmed/14997317/) 
+    - [Tricyclic antidepressants](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    - [Gabapentin, duloxetine, or pregabalin](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    [Multidisciplinary pain management programs](https://www.ncbi.nlm.nih.gov/pubmed/22550986), such as [cognitive behavioral therapy](https://www.ncbi.nlm.nih.gov/pubmed/11166973/)</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="9">
+        <f t="shared" si="2"/>
+        <v>46.3</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="3" t="str">
+        <f>CONCATENATE("    ",B56)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B58," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=46.3 /&gt;</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has an unknown variant.")</f>
+        <v>Your TRPM3 gene has an unknown variant.</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"unknown",CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="unknown"&gt; </v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="3" t="str">
+        <f>CONCATENATE("    ",B67)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has an unknown variant.</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B69," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"wildtype",CHAR(34),"&gt;")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="wildtype"&gt;</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="3" t="str">
+        <f>CONCATENATE("    ",B78)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B80," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="3" t="str">
+        <f>"&lt;/GeneAnalysis&gt;"</f>
+        <v>&lt;/GeneAnalysis&gt;</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A90," ",B90," #&gt;")</f>
+        <v>&lt;# symptoms vision problems D014786 pain D010146 chills and night sweats D023341 multiple chemical sensitivity/allergies D018777 inflammation D007249 #&gt;</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f>CONCATENATE("&lt;symptoms ",B92," /&gt;")</f>
+        <v>&lt;symptoms D014786 D010146 D023341 D018777 D007249 /&gt;</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A94," ",B94," #&gt;")</f>
+        <v>&lt;# Tissue List Brain and nervous system; Kidney and urinary bladder D005221  #&gt;</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="3" t="str">
+        <f>CONCATENATE("&lt;TissueList ",B96," /&gt;")</f>
+        <v>&lt;TissueList D005837 D004703 /&gt;</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C98" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A98," ",B98," #&gt;")</f>
+        <v>&lt;# Diseases disease pain, chronic D059350; cataracts D002386 glaucoma D005901 arthritis D001168 arthritis, rheumatoid arthritis D001172 diabetes D003920 ME/CFS D004198 disease, Genetic Predisposition to Disease D020022; overactive bladder D053201; COPD D029424; cardiovascular disease D002318; alzheimers D000544; cancer D009369; skin diseases D012871;  #&gt;</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="3" t="str">
+        <f>CONCATENATE("&lt;diseases ",B100," /&gt;")</f>
+        <v>&lt;diseases D059350 D002386 D005901 D001168 D001172 D003920 D004198 D020022 D053201 D029424 D002318 D000544 D009369 D012871 /&gt;</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CF359F-F87B-4E0C-8DD9-545B1BA1D6F5}">
+  <dimension ref="A1:H104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
+        <v>&lt;Gene_Name TRPM3 /&gt;</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
+        <v>&lt;GeneName_full transient receptor potential cation channel subfamily M member 3 /&gt;</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="str">
+        <f>CONCATENATE("# What does the ",B2," gene do?")</f>
+        <v># What does the TRPM3 gene do?</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
+        <v>TRPM3 controls [calcium channels](http://www.uniprot.org/uniprot/Q9HCF6#expression) that help detect temperature and pain. For ME/CFS patients, changes in the gene are linked with [insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) like diabetes and hypoglycemia, [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), [problems maintaining body temperature](http://pediatrics.aappublications.org/content/120/1/e129.short), vision problems like [cataracts and glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), and decreased function of [natural killer cells (NKC)](https://www.ncbi.nlm.nih.gov/pubmed/27099524), a type of white blood cell that helps the body respond to viral infections and inflammation. Other immune system issues include [releasing a type of white blood cells causing inflammation](http://jme.endocrinology-journals.org/content/50/3/R75.short). Impaired pain channels may lead to [generalized pain and nervous system ](https://link.springer.com/article/10.1007/s10067-006-0433-9)problems like [inflammatory pain syndromes and rheumatoid arthritis](http://jme.endocrinology-journals.org/content/50/3/R75.short). This gene is located on chromosome 9.</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="str">
+        <f>B22</f>
+        <v>A70610886C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">&lt;GeneAnalysis gene="TRPM3" interval="NC_000009.12:g.70529063_71446950"&gt; </v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
+        <v># What are some common variants of TRPM3?</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="9" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B25," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [A70610886C](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="C18" s="3" t="str">
+        <f>CONCATENATE("A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect ", B11," function. There is ",B16," common variant in ",B14,": ",B25,".")</f>
+        <v>A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect protein function. There is nineteen common variant in TRPM3: [A70610886C](http://journals.sagepub.com/doi/10.4137/III.S25147).</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="9">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",B22," #&gt;")</f>
+        <v>&lt;# A70610886C #&gt;</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B25," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [A70610886C](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000009.12:g.70610886T&gt;A" name="A70610886C"&gt; </v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="9">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f>CONCATENATE("    Instead of ",B23,", there is an ",B24," nucleotide.")</f>
+        <v xml:space="preserve">    Instead of adenine (A), there is an cytosine (C) nucleotide.</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f>"cytosine (C)"</f>
+        <v>cytosine (C)</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f>"  &lt;/Variant&gt;"</f>
+        <v xml:space="preserve">  &lt;/Variant&gt;</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17" t="str">
+        <f>C20</f>
+        <v>&lt;# A70610886C #&gt;</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="22" t="str">
+        <f>H14</f>
+        <v>NC_000009.12:g.</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B29,";",B30,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70610886T&gt;A];[70610886=]" name="A70610886C"&gt; </v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="22" t="str">
+        <f t="shared" ref="B29:B33" si="0">H15</f>
+        <v>[70610886T&gt;A]</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>[70610886=]</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f>CONCATENATE("    # What does this mean?   &lt;# ",B29,";",B30,", one variant #&gt; ")</f>
+        <v xml:space="preserve">    # What does this mean?   &lt;# [70610886T&gt;A];[70610886=], one variant #&gt; </v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>People with this variant have one copy of the [A70610886C](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Your [variant](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common in ME/CFS patients than in the general population. TRPM3 channels transport calcium and zinc and maintains the body’s homeostasis. Incorrect function has been linked to [cataracts, glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), [heart problems, and skin diseases](https://www.ncbi.nlm.nih.gov/pubmed/27835969). In [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/27835969) patients, TRP channels targeted during inflammatory reactions, may play a role in [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), because they cause the body releases excess numbers of inflammation causing white blood cells. [Insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) (diabetes) is also found in ME/CFS patients with TRPM3 variants.
+    Improper functioning of the pain channels may lead to [generalized pain and central nervous system impairments without tissue damage](https://link.springer.com/article/10.1007/s10067-006-0433-9). This includes:
+    - [chronic inflammatory pain syndromes](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [rheumatoid arthritis](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [neuropathy](https://www.ncbi.nlm.nih.gov/pubmed/27835969)   
+    [Incorrect thermoregulatory responses, including significantly more shivering, sweating, sudden change of skin color, and feeling unusually warm,](http://pediatrics.aappublications.org/content/120/1/e129.short) have been reported in ME/CFS patients. This may be connected to improper functioning of TRPM3 temperature receptors.
+    # What should I do about this?
+    CFS patients should be aware of their difficulty in maintaining a stable body temperature and avoid large temperature swings. Blood sugar should be checked regularly to avoid insulin and blood sugar issues.
+    Chronic pain relief may include:
+    - [Nonsteroidal anti-inflammatory drugs](https://www.ncbi.nlm.nih.gov/pubmed/14997317/) 
+    - [Tricyclic antidepressants](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    - [Gabapentin, duloxetine, or pregabalin](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    [Multidisciplinary pain management programs](https://www.ncbi.nlm.nih.gov/pubmed/22550986), such as [cognitive behavioral therapy](https://www.ncbi.nlm.nih.gov/pubmed/11166973/)</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f>CONCATENATE("    ",B31)</f>
+        <v xml:space="preserve">    People with this variant have one copy of the [A70610886C](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="22">
+        <f t="shared" si="0"/>
+        <v>49.6</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="3" t="str">
+        <f>CONCATENATE("    ",B32)</f>
+        <v xml:space="preserve">    Your [variant](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common in ME/CFS patients than in the general population. TRPM3 channels transport calcium and zinc and maintains the body’s homeostasis. Incorrect function has been linked to [cataracts, glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), [heart problems, and skin diseases](https://www.ncbi.nlm.nih.gov/pubmed/27835969). In [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/27835969) patients, TRP channels targeted during inflammatory reactions, may play a role in [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147), because they cause the body releases excess numbers of inflammation causing white blood cells. [Insulin and glucose dysregulation](http://jme.endocrinology-journals.org/content/50/3/R75.short) (diabetes) is also found in ME/CFS patients with TRPM3 variants.
+    Improper functioning of the pain channels may lead to [generalized pain and central nervous system impairments without tissue damage](https://link.springer.com/article/10.1007/s10067-006-0433-9). This includes:
+    - [chronic inflammatory pain syndromes](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [rheumatoid arthritis](https://www.ncbi.nlm.nih.gov/pubmed/27835969) 
+    - [neuropathy](https://www.ncbi.nlm.nih.gov/pubmed/27835969)   
+    [Incorrect thermoregulatory responses, including significantly more shivering, sweating, sudden change of skin color, and feeling unusually warm,](http://pediatrics.aappublications.org/content/120/1/e129.short) have been reported in ME/CFS patients. This may be connected to improper functioning of TRPM3 temperature receptors.
+    # What should I do about this?
+    CFS patients should be aware of their difficulty in maintaining a stable body temperature and avoid large temperature swings. Blood sugar should be checked regularly to avoid insulin and blood sugar issues.
+    Chronic pain relief may include:
+    - [Nonsteroidal anti-inflammatory drugs](https://www.ncbi.nlm.nih.gov/pubmed/14997317/) 
+    - [Tricyclic antidepressants](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    - [Gabapentin, duloxetine, or pregabalin](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
+    [Multidisciplinary pain management programs](https://www.ncbi.nlm.nih.gov/pubmed/22550986), such as [cognitive behavioral therapy](https://www.ncbi.nlm.nih.gov/pubmed/11166973/)</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B33," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=49.6 /&gt;</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f>H20</f>
+        <v>People with this variant have two copies of the [A70610886C](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B29,";",B29,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70610886T&gt;A];[70610886T&gt;A]" name="A70610886C"&gt; </v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" ref="B43:B44" si="1">H21</f>
+        <v>This variant is not associated with increased risk.</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="9">
+        <f t="shared" si="1"/>
+        <v>45.4</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f>CONCATENATE("    # What does this mean?  &lt;# ",B29,";",B29,", two variants #&gt; ")</f>
+        <v xml:space="preserve">    # What does this mean?  &lt;# [70610886T&gt;A];[70610886T&gt;A], two variants #&gt; </v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="3" t="str">
+        <f>CONCATENATE("    ",B42)</f>
+        <v xml:space="preserve">    People with this variant have two copies of the [A70610886C](http://journals.sagepub.com/doi/10.4137/III.S25147) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="3" t="str">
+        <f>CONCATENATE("    ",B43)</f>
+        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B44," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=45.4 /&gt;</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="9" t="str">
+        <f>H23</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B28,B30,";",B30,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000009.12:g.[70610886=];[70610886=]" name="A70610886C"&gt; </v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="9" t="str">
+        <f t="shared" ref="B57:B58" si="2">H24</f>
+        <v>This variant is not associated with increased risk.</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="3" t="str">
+        <f>CONCATENATE("    ",B56)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="3" t="str">
+        <f>CONCATENATE("    ",B57)</f>
+        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B58," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage=5 /&gt;</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has an unknown variant.")</f>
+        <v>Your TRPM3 gene has an unknown variant.</v>
+      </c>
+      <c r="C71" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"unknown",CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="unknown"&gt; </v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="3" t="str">
+        <f>CONCATENATE("    ",B71)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has an unknown variant.</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B73," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="9" t="str">
+        <f>CONCATENATE("Your ",B14," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
+        <v>Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"wildtype",CHAR(34),"&gt;")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="wildtype"&gt;</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="3" t="str">
+        <f>CONCATENATE("    ",B82)</f>
+        <v xml:space="preserve">    Your TRPM3 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="21"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B84," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="3" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="3" t="str">
+        <f>"&lt;/GeneAnalysis&gt;"</f>
+        <v>&lt;/GeneAnalysis&gt;</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="23"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A94," ",B94," #&gt;")</f>
+        <v>&lt;# symptoms vision problems D014786 pain D010146 chills and night sweats D023341 multiple chemical sensitivity/allergies D018777 inflammation D007249 #&gt;</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="3" t="str">
+        <f>CONCATENATE("&lt;symptoms ",B96," /&gt;")</f>
+        <v>&lt;symptoms D014786 D010146 D023341 D018777 D007249 /&gt;</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A98," ",B98," #&gt;")</f>
+        <v>&lt;# Tissue List Brain and nervous system; Kidney and urinary bladder D005221  #&gt;</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" s="3" t="str">
+        <f>CONCATENATE("&lt;TissueList ",B100," /&gt;")</f>
+        <v>&lt;TissueList D005837 D004703 /&gt;</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="3" t="str">
+        <f>CONCATENATE("&lt;# ",A102," ",B102," #&gt;")</f>
+        <v>&lt;# Diseases disease pain, chronic D059350; cataracts D002386 glaucoma D005901 arthritis D001168 arthritis, rheumatoid arthritis D001172 diabetes D003920 ME/CFS D004198 disease, Genetic Predisposition to Disease D020022; overactive bladder D053201; COPD D029424; cardiovascular disease D002318; alzheimers D000544; cancer D009369; skin diseases D012871;  #&gt;</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" s="3" t="str">
+        <f>CONCATENATE("&lt;diseases ",B104," /&gt;")</f>
+        <v>&lt;diseases D059350 D002386 D005901 D001168 D001172 D003920 D004198 D020022 D053201 D029424 D002318 D000544 D009369 D012871 /&gt;</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/hupf/Gene Frequency 7-12.xlsb.xlsx
+++ b/doc/hupf/Gene Frequency 7-12.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth\Documents\Genes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B558D49E-A662-4C71-8B1C-18B9292B4B23}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BA5A2-2EC8-4EC1-BDF8-553E5633B922}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6345" activeTab="3" xr2:uid="{9418C323-7848-48D6-94C8-9687E9FE5624}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6345" activeTab="2" xr2:uid="{9418C323-7848-48D6-94C8-9687E9FE5624}"/>
   </bookViews>
   <sheets>
     <sheet name="CHRNA3" sheetId="1" r:id="rId1"/>
@@ -211,22 +211,13 @@
     <t>Neuronal acetylcholine receptor subunit alpha-3</t>
   </si>
   <si>
-    <t>NC_000015.10:g.78593052_78621295</t>
-  </si>
-  <si>
     <t>two</t>
   </si>
   <si>
-    <t>NC_000015.10:g.78606381C&gt;T</t>
-  </si>
-  <si>
     <t>C78606381T</t>
   </si>
   <si>
     <t>[C78606381T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=12914385)</t>
-  </si>
-  <si>
-    <t>NC_000015.10:g.78601997G&gt;A</t>
   </si>
   <si>
     <t xml:space="preserve">C645T </t>
@@ -968,6 +959,15 @@
   </si>
   <si>
     <t>NC_000001.10:g.37449595C&gt;T</t>
+  </si>
+  <si>
+    <t>NC_000015.9:g.78885394_78913637</t>
+  </si>
+  <si>
+    <t>NC_000015.9:g.78898723C&gt;T</t>
+  </si>
+  <si>
+    <t>NC_000015.9:g.78894339G&gt;A</t>
   </si>
 </sst>
 </file>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7C8324-8FE0-4A48-9E04-63FD71F9925B}">
   <dimension ref="A1:AJ2323"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1652,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
@@ -1730,13 +1730,13 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">&lt;GeneAnalysis gene="CHRNA3" interval="NC_000015.10:g.78593052_78621295"&gt; </v>
+        <v xml:space="preserve">&lt;GeneAnalysis gene="CHRNA3" interval="NC_000015.9:g.78885394_78913637"&gt; </v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
@@ -1761,13 +1761,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1792,17 +1792,17 @@
         <v>24</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
         <v># What are some common variants of CHRNA3?</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1861,10 +1861,10 @@
         <v>A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect protein function. There are two common variants in CHRNA3: [C78606381T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=12914385) and [C645T](https://www.ncbi.nlm.nih.gov/clinvar/variation/17503/).</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1947,17 +1947,17 @@
         <v>26</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Variant hgvs="NC_000015.10:g.78606381C&gt;T" name="C78606381T"&gt; </v>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000015.9:g.78898723C&gt;T" name="C78606381T"&gt; </v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1982,7 +1982,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H22" s="24">
         <v>15.9</v>
@@ -2081,7 +2081,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -2124,11 +2124,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>62</v>
+        <v>255</v>
       </c>
       <c r="C27" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B27,CHAR(34)," name=",CHAR(34),B28,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Variant hgvs="NC_000015.10:g.78601997G&gt;A" name="C645T "&gt; </v>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000015.9:g.78894339G&gt;A" name="C645T "&gt; </v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3" t="str">
         <f>CONCATENATE("    Instead of ",B29,", there is a ",B30," nucleotide.")</f>
@@ -2156,7 +2156,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -3019,7 +3019,7 @@
         <v>50</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C139" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A139," ",B139," #&gt;")</f>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B141" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C141" s="3" t="str">
         <f>CONCATENATE("&lt;symptoms ",B141," /&gt;")</f>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B145" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C145" s="3" t="str">
         <f>CONCATENATE("&lt;TissueList ",B145," /&gt;")</f>
@@ -3061,7 +3061,7 @@
         <v>52</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C147" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A147," ",B147," #&gt;")</f>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B149" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C149" s="3" t="str">
         <f>CONCATENATE("&lt;diseases ",B149," /&gt;")</f>
@@ -3206,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563A17D9-09A3-4650-8626-018AE28BC7BD}">
   <dimension ref="A1:AJ2457"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3264,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
@@ -3303,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
@@ -3386,7 +3386,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
@@ -3497,7 +3497,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>20</v>
@@ -3587,56 +3587,56 @@
         <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
         <v xml:space="preserve">&lt;GeneAnalysis gene="CHRNA2" interval="NC_000008.11:g.27459761_27479296"&gt; </v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S14" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T14" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
@@ -3648,52 +3648,52 @@
         <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="O15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="P15" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="Q15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="S15" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="T15" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="U15" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="V15" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -3705,56 +3705,56 @@
         <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
         <v># What are some common variants of CHRNA2?</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="M16" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="N16" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="O16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="P16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="Q16" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="R16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="T16" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="U16" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="R16" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="S16" s="9" t="s">
+      <c r="V16" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
@@ -3852,10 +3852,10 @@
         <v>32</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>32</v>
@@ -3879,7 +3879,7 @@
         <v>32</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -4012,7 +4012,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
@@ -4022,19 +4022,19 @@
         <v>32</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>32</v>
@@ -4043,7 +4043,7 @@
         <v>32</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>32</v>
@@ -4052,13 +4052,13 @@
         <v>32</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V21" s="9" t="s">
         <v>32</v>
@@ -4073,7 +4073,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H22" s="9">
         <v>15.2</v>
@@ -4210,13 +4210,13 @@
         <v>31</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>32</v>
@@ -4231,22 +4231,22 @@
         <v>32</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U24" s="9" t="s">
         <v>32</v>
@@ -4264,7 +4264,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -4332,7 +4332,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B27,CHAR(34)," name=",CHAR(34),B28,CHAR(34),"&gt; ")</f>
@@ -4344,7 +4344,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -4373,7 +4373,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C31" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -4392,7 +4392,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B33,CHAR(34)," name=",CHAR(34),B34,CHAR(34),"&gt; ")</f>
@@ -4404,7 +4404,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4433,7 +4433,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C37" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -4452,7 +4452,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C39" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B39,CHAR(34)," name=",CHAR(34),B40,CHAR(34),"&gt; ")</f>
@@ -4464,7 +4464,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4492,7 +4492,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C43" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -4511,7 +4511,7 @@
         <v>26</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B45,CHAR(34)," name=",CHAR(34),B46,CHAR(34),"&gt; ")</f>
@@ -4523,7 +4523,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4543,7 +4543,7 @@
         <v>30</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,7 +4551,7 @@
         <v>33</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C49" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -6156,7 +6156,7 @@
         <v>50</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C274" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A274," ",B274," #&gt;")</f>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B276" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C276" s="3" t="str">
         <f>CONCATENATE("&lt;symptoms ",B276," /&gt;")</f>
@@ -6177,7 +6177,7 @@
         <v>51</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C278" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A278," ",B278," #&gt;")</f>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B280" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C280" s="3" t="str">
         <f>CONCATENATE("&lt;TissueList ",B280," /&gt;")</f>
@@ -6198,7 +6198,7 @@
         <v>52</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C281" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A281," ",B281," #&gt;")</f>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B283" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C283" s="3" t="str">
         <f>CONCATENATE("&lt;diseases ",B283," /&gt;")</f>
@@ -6343,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC55F292-8711-4190-B071-79EB8400A0A1}">
   <dimension ref="A1:AJ2364"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6401,7 +6401,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
@@ -6440,7 +6440,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
@@ -6523,7 +6523,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
@@ -6634,7 +6634,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>20</v>
@@ -6692,20 +6692,20 @@
         <v>22</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
         <v xml:space="preserve">&lt;GeneAnalysis gene="CHRNA5" interval="NC_000015.10:G.78565520_78595269"&gt; </v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -6716,16 +6716,16 @@
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T14" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
@@ -6737,16 +6737,16 @@
         <v>23</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -6757,16 +6757,16 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="V15" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -6778,20 +6778,20 @@
         <v>24</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
         <v># What are some common variants of CHRNA5?</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -6802,16 +6802,16 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="V16" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
@@ -6872,13 +6872,13 @@
         <v>A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect protein function. There are three common variants in CHRNA5: [G1192A (Asp398Asn)](https://www.ncbi.nlm.nih.gov/clinvar/variation/17497/), [A78573551G](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=6495306), and [A78581651T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=7180002).</v>
       </c>
       <c r="H18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>159</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -6898,7 +6898,7 @@
         <v>32</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -6993,20 +6993,20 @@
         <v>26</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
         <v xml:space="preserve">  &lt;Variant hgvs="NC_000015.10:g.78590583G&gt;A" name="G1192A"&gt; </v>
       </c>
       <c r="H21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -7017,13 +7017,13 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V21" s="9" t="s">
         <v>32</v>
@@ -7038,7 +7038,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22">
         <v>5.2</v>
@@ -7079,7 +7079,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="str">
         <f>CONCATENATE("    Instead of ",B23,", there is an ",B24," nucleotide.")</f>
@@ -7131,7 +7131,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>32</v>
@@ -7154,7 +7154,7 @@
         <v>32</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U24" s="9" t="s">
         <v>32</v>
@@ -7172,7 +7172,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -7225,7 +7225,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B27,CHAR(34)," name=",CHAR(34),B28,CHAR(34),"&gt; ")</f>
@@ -7237,7 +7237,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -7245,7 +7245,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3" t="str">
         <f>CONCATENATE("    Instead of ",B29,", there is a ",B30," nucleotide.")</f>
@@ -7257,7 +7257,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -7265,7 +7265,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C31" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -7285,7 +7285,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C33" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B33,CHAR(34)," name=",CHAR(34),B34,CHAR(34),"&gt; ")</f>
@@ -7297,7 +7297,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7305,7 +7305,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="str">
         <f>CONCATENATE("    Instead of ",B35,", there is a ",B36," nucleotide.")</f>
@@ -7325,7 +7325,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C37" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -8435,7 +8435,7 @@
         <v>50</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C180" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A180," ",B180," #&gt;")</f>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B182" s="35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C182" s="3" t="str">
         <f>CONCATENATE("&lt;symptoms ",B182," /&gt;")</f>
@@ -8456,7 +8456,7 @@
         <v>51</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C184" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A184," ",B184," #&gt;")</f>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B186" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C186" s="3" t="str">
         <f>CONCATENATE("&lt;TissueList ",B186," /&gt;")</f>
@@ -8480,7 +8480,7 @@
         <v>52</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C188" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A188," ",B188," #&gt;")</f>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B190" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C190" s="3" t="str">
         <f>CONCATENATE("&lt;diseases ",B190," /&gt;")</f>
@@ -8626,7 +8626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E81E4-7873-40DD-85B0-9CD94B08F292}">
   <dimension ref="A1:AJ190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -8684,7 +8684,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
@@ -8723,7 +8723,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
@@ -8806,7 +8806,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
@@ -8917,7 +8917,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>20</v>
@@ -8975,20 +8975,20 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
         <v xml:space="preserve">&lt;GeneAnalysis gene="GRIK3" interval="NC000001_1.11:g.1111_9999"&gt; </v>
       </c>
       <c r="H14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="J14" t="s">
         <v>177</v>
-      </c>
-      <c r="J14" t="s">
-        <v>180</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -8999,16 +8999,16 @@
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T14" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
@@ -9020,16 +9020,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H15" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -9040,16 +9040,16 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="V15" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -9061,20 +9061,20 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
         <v># What are some common variants of GRIK3?</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -9085,16 +9085,16 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="V16" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
@@ -9155,13 +9155,13 @@
         <v>A variant is a change at a specific point in the gene from the expected nucleotide sequence to another, resulting in incorrect protein function. There are three common variants in GRIK3: [T928G](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=6691840)[(Ser310Ala)](https://www.ncbi.nlm.nih.gov/pubmed/11986986), [C36983994T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=3913434), and [A7783504C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=270838).</v>
       </c>
       <c r="H18" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>189</v>
-      </c>
       <c r="J18" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -9181,7 +9181,7 @@
         <v>32</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -9276,14 +9276,14 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
         <v xml:space="preserve">  &lt;Variant hgvs="NC_000001.10:g.37325477A&gt;G" name="T928G"&gt; </v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>32</v>
@@ -9300,13 +9300,13 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V21" s="9" t="s">
         <v>32</v>
@@ -9321,7 +9321,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H22">
         <v>19.899999999999999</v>
@@ -9414,7 +9414,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>32</v>
@@ -9437,7 +9437,7 @@
         <v>32</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U24" s="9" t="s">
         <v>32</v>
@@ -9455,7 +9455,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -9508,7 +9508,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C27" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B27,CHAR(34)," name=",CHAR(34),B28,CHAR(34),"&gt; ")</f>
@@ -9520,7 +9520,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -9549,7 +9549,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C31" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -9569,7 +9569,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C33" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B33,CHAR(34)," name=",CHAR(34),B34,CHAR(34),"&gt; ")</f>
@@ -9581,7 +9581,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9589,7 +9589,7 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="str">
         <f>CONCATENATE("    Instead of ",B35,", there is a ",B36," nucleotide.")</f>
@@ -9610,7 +9610,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C37" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -9869,7 +9869,7 @@
         <v>37.1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -10163,7 +10163,7 @@
         <v>97.8</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -10457,7 +10457,7 @@
         <v>79.5</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -10660,7 +10660,7 @@
         <v>50</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C180" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A180," ",B180," #&gt;")</f>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B182" s="35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C182" s="3" t="str">
         <f>CONCATENATE("&lt;symptoms ",B182," /&gt;")</f>
@@ -10681,7 +10681,7 @@
         <v>51</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C184" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A184," ",B184," #&gt;")</f>
@@ -10690,7 +10690,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B186" s="35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C186" s="3" t="str">
         <f>CONCATENATE("&lt;TissueList ",B186," /&gt;")</f>
@@ -10705,7 +10705,7 @@
         <v>52</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C188" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A188," ",B188," #&gt;")</f>
@@ -10714,7 +10714,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B190" s="35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C190" s="3" t="str">
         <f>CONCATENATE("&lt;diseases ",B190," /&gt;")</f>
@@ -10731,8 +10731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4606A235-C6E1-4612-9BDB-2EECBE515F8F}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A100" sqref="A1:H100"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10768,7 +10768,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
@@ -10805,7 +10805,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
@@ -10886,7 +10886,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
@@ -10975,7 +10975,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -11005,7 +11005,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -11053,7 +11053,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
@@ -11064,7 +11064,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I14" s="30"/>
       <c r="K14" s="18"/>
@@ -11076,7 +11076,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -11084,7 +11084,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -11097,7 +11097,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
@@ -11108,7 +11108,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -11146,7 +11146,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -11195,7 +11195,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
@@ -11206,7 +11206,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -11219,7 +11219,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -11286,7 +11286,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -11921,7 +11921,7 @@
         <v>93.8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12244,7 +12244,7 @@
         <v>50</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C90" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A90," ",B90," #&gt;")</f>
@@ -12279,7 +12279,7 @@
     <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C92" s="3" t="str">
         <f>CONCATENATE("&lt;symptoms ",B92," /&gt;")</f>
@@ -12316,7 +12316,7 @@
         <v>51</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C94" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A94," ",B94," #&gt;")</f>
@@ -12351,7 +12351,7 @@
     <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C96" s="3" t="str">
         <f>CONCATENATE("&lt;TissueList ",B96," /&gt;")</f>
@@ -12388,7 +12388,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C98" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A98," ",B98," #&gt;")</f>
@@ -12423,7 +12423,7 @@
     <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="35" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C100" s="3" t="str">
         <f>CONCATENATE("&lt;diseases ",B100," /&gt;")</f>
@@ -12481,7 +12481,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
@@ -12508,7 +12508,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
@@ -12560,7 +12560,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
@@ -12623,7 +12623,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -12652,7 +12652,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
@@ -12663,7 +12663,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12671,7 +12671,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -12679,7 +12679,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12687,7 +12687,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
@@ -12698,7 +12698,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12726,7 +12726,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12760,7 +12760,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
@@ -12771,7 +12771,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12779,7 +12779,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -12832,7 +12832,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -13338,7 +13338,7 @@
         <v>93.8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -13737,7 +13737,7 @@
         <v>50</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C90" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A90," ",B90," #&gt;")</f>
@@ -13762,7 +13762,7 @@
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C92" s="3" t="str">
         <f>CONCATENATE("&lt;symptoms ",B92," /&gt;")</f>
@@ -13789,7 +13789,7 @@
         <v>51</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C94" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A94," ",B94," #&gt;")</f>
@@ -13814,7 +13814,7 @@
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C96" s="3" t="str">
         <f>CONCATENATE("&lt;TissueList ",B96," /&gt;")</f>
@@ -13841,7 +13841,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C98" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A98," ",B98," #&gt;")</f>
@@ -13866,7 +13866,7 @@
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C100" s="3" t="str">
         <f>CONCATENATE("&lt;diseases ",B100," /&gt;")</f>
@@ -13919,7 +13919,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
@@ -13946,7 +13946,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
@@ -13998,7 +13998,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
@@ -14061,7 +14061,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -14090,7 +14090,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
@@ -14101,7 +14101,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14109,7 +14109,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -14117,7 +14117,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14125,7 +14125,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
@@ -14136,7 +14136,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14164,7 +14164,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14198,7 +14198,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
@@ -14209,7 +14209,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14233,7 +14233,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="str">
         <f>CONCATENATE("    Instead of ",B23,", there is an ",B24," nucleotide.")</f>
@@ -14253,7 +14253,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -14269,7 +14269,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -14767,7 +14767,7 @@
         <v>12.8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -15166,7 +15166,7 @@
         <v>50</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C90" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A90," ",B90," #&gt;")</f>
@@ -15191,7 +15191,7 @@
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C92" s="3" t="str">
         <f>CONCATENATE("&lt;symptoms ",B92," /&gt;")</f>
@@ -15218,7 +15218,7 @@
         <v>51</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C94" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A94," ",B94," #&gt;")</f>
@@ -15243,7 +15243,7 @@
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C96" s="3" t="str">
         <f>CONCATENATE("&lt;TissueList ",B96," /&gt;")</f>
@@ -15270,7 +15270,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C98" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A98," ",B98," #&gt;")</f>
@@ -15295,7 +15295,7 @@
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C100" s="3" t="str">
         <f>CONCATENATE("&lt;diseases ",B100," /&gt;")</f>
@@ -15348,7 +15348,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
@@ -15375,7 +15375,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
@@ -15427,7 +15427,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
@@ -15490,7 +15490,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -15519,7 +15519,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
@@ -15530,7 +15530,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15538,7 +15538,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -15546,7 +15546,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15554,7 +15554,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
@@ -15565,7 +15565,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15627,7 +15627,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
@@ -15691,7 +15691,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15699,7 +15699,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -16161,7 +16161,7 @@
         <v>46.3</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -16302,7 +16302,7 @@
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -16560,7 +16560,7 @@
         <v>50</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C90" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A90," ",B90," #&gt;")</f>
@@ -16585,7 +16585,7 @@
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C92" s="3" t="str">
         <f>CONCATENATE("&lt;symptoms ",B92," /&gt;")</f>
@@ -16612,7 +16612,7 @@
         <v>51</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C94" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A94," ",B94," #&gt;")</f>
@@ -16637,7 +16637,7 @@
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C96" s="3" t="str">
         <f>CONCATENATE("&lt;TissueList ",B96," /&gt;")</f>
@@ -16664,7 +16664,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C98" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A98," ",B98," #&gt;")</f>
@@ -16689,7 +16689,7 @@
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C100" s="3" t="str">
         <f>CONCATENATE("&lt;diseases ",B100," /&gt;")</f>
@@ -16742,7 +16742,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>CONCATENATE("&lt;",A2," ",B2," /&gt;")</f>
@@ -16769,7 +16769,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("&lt;",A4," ",B4," /&gt;")</f>
@@ -16821,7 +16821,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CONCATENATE(B8," This gene is located on chromosome ",B10,".")</f>
@@ -16884,7 +16884,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -16913,7 +16913,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B14,CHAR(34)," interval=",CHAR(34),B15,CHAR(34),"&gt; ")</f>
@@ -16924,7 +16924,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -16932,7 +16932,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -16940,7 +16940,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -16948,7 +16948,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>CONCATENATE("# What are some common variants of ",B14,"?")</f>
@@ -16959,7 +16959,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -16987,7 +16987,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -17021,7 +17021,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B21,CHAR(34)," name=",CHAR(34),B22,CHAR(34),"&gt; ")</f>
@@ -17056,7 +17056,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="str">
         <f>CONCATENATE("    Instead of ",B23,", there is an ",B24," nucleotide.")</f>
@@ -17093,7 +17093,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>"  &lt;/Variant&gt;"</f>
@@ -17567,7 +17567,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -18010,7 +18010,7 @@
         <v>50</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C94" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A94," ",B94," #&gt;")</f>
@@ -18035,7 +18035,7 @@
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C96" s="3" t="str">
         <f>CONCATENATE("&lt;symptoms ",B96," /&gt;")</f>
@@ -18062,7 +18062,7 @@
         <v>51</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C98" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A98," ",B98," #&gt;")</f>
@@ -18087,7 +18087,7 @@
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C100" s="3" t="str">
         <f>CONCATENATE("&lt;TissueList ",B100," /&gt;")</f>
@@ -18114,7 +18114,7 @@
         <v>52</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C102" s="3" t="str">
         <f>CONCATENATE("&lt;# ",A102," ",B102," #&gt;")</f>
@@ -18139,7 +18139,7 @@
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C104" s="3" t="str">
         <f>CONCATENATE("&lt;diseases ",B104," /&gt;")</f>
